--- a/biology/Médecine/Francis_Nijim/Francis_Nijim.xlsx
+++ b/biology/Médecine/Francis_Nijim/Francis_Nijim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Nijim[1],[2] (فرنسيس ; né le 15 février 1996) est un pédiatre[3] et acteur israélien[4], surtout connu pour son rôle principal dans l'adaptation arabe de la série dramatique juridique américaine Suits[5],[6]. Il incarne Harvey Specter, dans la série créée pendant le Ramadan 2023.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Nijim, (فرنسيس ; né le 15 février 1996) est un pédiatre et acteur israélien, surtout connu pour son rôle principal dans l'adaptation arabe de la série dramatique juridique américaine Suits,. Il incarne Harvey Specter, dans la série créée pendant le Ramadan 2023.
 </t>
         </is>
       </c>
@@ -513,16 +525,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et éducation
-Francis Nijim est né le 15 février 1996 à l'hôpital EMMS de Nazareth. Il est le fils du Dr Yousef Nijim, chef des services néonatals et pédiatriques de l'hôpital EMMS. Il a terminé ses études primaires et secondaires à l'école des Sœurs Salvatoriennes. En grandissant, il a appris à jouer du piano, du football et du ski.
+          <t>Enfance et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Francis Nijim est né le 15 février 1996 à l'hôpital EMMS de Nazareth. Il est le fils du Dr Yousef Nijim, chef des services néonatals et pédiatriques de l'hôpital EMMS. Il a terminé ses études primaires et secondaires à l'école des Sœurs Salvatoriennes. En grandissant, il a appris à jouer du piano, du football et du ski.
 Après avoir obtenu son diplôme d'études secondaires, à l'âge de 18 ans, Francis a déménagé en Moldavie, Chișinău en 2014 pour commencer le même parcours médical que son père à l'Université d'État de médecine et de pharmacie Nicolae Testemițanu. Suite à ses études, il obtient une licence et une maîtrise en médecine.
-En 2017, il a déménagé en Italie pour étudier le théâtre à l'Académie du cinéma de Milan, dont il a obtenu son diplôme en 2020.
-Carrière
-Immobilier
-En plus de poursuivre ses études de médecine, Nijim a commencé à travailler comme courtier immobilier[7]. Il a investi ses bénéfices de courtage immobilier dans une société de location de voitures de luxe à Dubaï , Émirats arabes unis, en 2020. Masterkey est l'une des sociétés de location de voitures de luxe les plus rentables de Dubaï, elle attire des milliers de clients chaque année.
+En 2017, il a déménagé en Italie pour étudier le théâtre à l'Académie du cinéma de Milan, dont il a obtenu son diplôme en 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Francis_Nijim</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Nijim</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Immobilier</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de poursuivre ses études de médecine, Nijim a commencé à travailler comme courtier immobilier. Il a investi ses bénéfices de courtage immobilier dans une société de location de voitures de luxe à Dubaï , Émirats arabes unis, en 2020. Masterkey est l'une des sociétés de location de voitures de luxe les plus rentables de Dubaï, elle attire des milliers de clients chaque année.
 Pendant la pandémie, Francis Nijim a offert ses services à l'hôpital EMMS et au centre médical HaEmek. Il a également fait don d'un total de 40 000 $ à une association caritative de sauvetage d'animaux et à une association caritative pour les enfants en Inde.
-Acteur
-Après s'être d'abord fait connaître dans le domaine médical en tant que pédiatre, Nijim décide de se lancer dans le métier d'acteur. Sa carrière d'acteur a pris un tournant important en 2022 lorsqu'il a joué dans le drame du Ramadan Houria[8] sur Echorouk TV[9].  Il a ensuite décroché le rôle d'Harvey Specter dans la version arabe de Suits[10],[11], qui lui a valu une plus grande renommée. Il a exprimé son engagement à maintenir l'authenticité de sa carrière d'acteur malgré la renommée[12]. Il a également décroché un rôle d'un enquêteur français pour la série Voyageur se déroulant à Nice, en France[13], et d'un petit rôle dans la saison 3 de la série française Le Duo[14]. Puis, malgré son succès dans sa carrière s'acteur, Francis Nijim avait décidé de prendre une petite pause pendant quelques temps pour mieux revenir[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francis_Nijim</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Nijim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s'être d'abord fait connaître dans le domaine médical en tant que pédiatre, Nijim décide de se lancer dans le métier d'acteur. Sa carrière d'acteur a pris un tournant important en 2022 lorsqu'il a joué dans le drame du Ramadan Houria sur Echorouk TV.  Il a ensuite décroché le rôle d'Harvey Specter dans la version arabe de Suits qui lui a valu une plus grande renommée. Il a exprimé son engagement à maintenir l'authenticité de sa carrière d'acteur malgré la renommée. Il a également décroché un rôle d'un enquêteur français pour la série Voyageur se déroulant à Nice, en France, et d'un petit rôle dans la saison 3 de la série française Le Duo. Puis, malgré son succès dans sa carrière s'acteur, Francis Nijim avait décidé de prendre une petite pause pendant quelques temps pour mieux revenir.
 </t>
         </is>
       </c>
